--- a/10 - ЕСЛИ с ВПР/1 - ЕСЛИ с ВПР.xlsx
+++ b/10 - ЕСЛИ с ВПР/1 - ЕСЛИ с ВПР.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:R506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
